--- a/www.eia.gov/forecasts/steo/xls/Fig25.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig25.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Electricity Generation, All Sectors (thousand megawatthours per day)</t>
@@ -83,7 +83,7 @@
     <t>Generation</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note: Labels show percentage share of total generation provided by coal and natural gas.</t>
@@ -381,13 +381,13 @@
                   <c:v>74.368494218999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.488865218000001</c:v>
+                  <c:v>73.931841148000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.702008411000008</c:v>
+                  <c:v>76.064637013999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.565310767</c:v>
+                  <c:v>77.236035014000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,13 +472,13 @@
                   <c:v>808.65995581000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>926.06200429</c:v>
+                  <c:v>926.89138218999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>954.95465396999998</c:v>
+                  <c:v>1021.3840595</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1043.4115551</c:v>
+                  <c:v>1108.8402649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,13 +627,13 @@
                   <c:v>668.46189529000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>710.09163518000003</c:v>
+                  <c:v>703.77238824999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>688.40494192000006</c:v>
+                  <c:v>718.02100574999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>717.84350384000004</c:v>
+                  <c:v>722.39351999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,10 +718,10 @@
                   <c:v>2184.0489781000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2200.4286966999998</c:v>
+                  <c:v>2199.3331119999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2163.5052795000001</c:v>
+                  <c:v>2161.8027781000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2122.9725232999999</c:v>
@@ -809,13 +809,13 @@
                   <c:v>77.393792520999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.598316478000001</c:v>
+                  <c:v>65.963804644999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.541876685000005</c:v>
+                  <c:v>69.099193972999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.636247698999995</c:v>
+                  <c:v>72.131605781000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +859,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9EAB2056-DAC9-4963-8830-EA427F2C7704}</c15:txfldGUID>
+                      <c15:txfldGUID>{9938AAAD-EE02-4ABC-A065-6378013CFD22}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$28</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -898,7 +898,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{73976DD3-7732-4FC3-BF84-CEEE2FC78F93}</c15:txfldGUID>
+                      <c15:txfldGUID>{114A3401-1D58-4EAE-9848-8B5DB3088CDE}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$29</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -937,7 +937,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0EC5102C-FF6E-4E08-8FFC-343A451C7F5D}</c15:txfldGUID>
+                      <c15:txfldGUID>{DCA11F7B-C886-44D8-836D-6A5528F602A0}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$30</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -976,7 +976,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{66606CEF-6124-4315-9F9B-B7DFD6FCDED5}</c15:txfldGUID>
+                      <c15:txfldGUID>{53F33D16-0246-4874-BC33-BA6DBBA96951}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$31</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1015,7 +1015,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3C7EDB64-41ED-423D-8477-3B5E75F556A2}</c15:txfldGUID>
+                      <c15:txfldGUID>{B6934FBD-80DD-408B-864A-9AEE02C9F7DC}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$32</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1054,7 +1054,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C57C1629-4F8D-4086-BD3B-688C89CD9BD3}</c15:txfldGUID>
+                      <c15:txfldGUID>{33ADB614-04D5-4FE9-A1EE-A244F6E023A4}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$33</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1093,7 +1093,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{714429E2-C2D5-4C46-A87D-22D3DB376639}</c15:txfldGUID>
+                      <c15:txfldGUID>{0A201733-C9DA-4586-AD98-F947DC03D161}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$34</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1132,7 +1132,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{265FC7EA-323A-4CDE-8404-556BF42B9A07}</c15:txfldGUID>
+                      <c15:txfldGUID>{B4E487E8-F6EC-4DDA-AC8C-D9AC8A15BBFC}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$35</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1155,7 +1155,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>32.3%</c:v>
+                      <c:v>32.4%</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -1171,12 +1171,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2255D475-DE46-49F4-947D-ABAF73859743}</c15:txfldGUID>
+                      <c15:txfldGUID>{4C300749-9867-40E4-94A3-E3FF81DCE011}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$36</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>32.3%</c:v>
+                          <c:v>32.4%</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -1194,7 +1194,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>32.8%</c:v>
+                      <c:v>32.7%</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -1210,12 +1210,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ED0C23F6-4CBF-4525-AF29-C766CB2B78B7}</c15:txfldGUID>
+                      <c15:txfldGUID>{F5D33D88-83E7-4569-ACB2-05407FC16BCF}</c15:txfldGUID>
                       <c15:f>'Fig25'!$L$37</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>32.8%</c:v>
+                          <c:v>32.7%</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -1321,13 +1321,13 @@
                   <c:v>3653.3756131999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3791.7229287</c:v>
+                  <c:v>3791.2734040999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3623.4475726000001</c:v>
+                  <c:v>3605.4093177999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3708.0333836</c:v>
+                  <c:v>3700.8256301000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,7 +1374,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DC178CD-1AED-4E36-9576-37F226BCFCBB}</c15:txfldGUID>
+                      <c15:txfldGUID>{F56B7F0E-BE66-4DCF-9B4A-213BD9A66600}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$28</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1413,7 +1413,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A845EC20-6610-4F6F-82C6-FC26F61F0070}</c15:txfldGUID>
+                      <c15:txfldGUID>{63CF0F2E-07C9-42EE-9778-3989C7B7AA5F}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$29</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1452,7 +1452,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D48150D-00FD-4666-A6E4-5CE6A9D91B7D}</c15:txfldGUID>
+                      <c15:txfldGUID>{9320C1FC-5652-4120-95DD-210FA34A9CA7}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$30</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1491,7 +1491,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2A2DEDA3-925A-4F2C-9804-666690BCC46F}</c15:txfldGUID>
+                      <c15:txfldGUID>{DD7DE495-AA38-4CB2-9E01-2588F3001A6C}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$31</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1530,7 +1530,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{97FD750C-3C5C-42CD-A7DA-BC9BF7864681}</c15:txfldGUID>
+                      <c15:txfldGUID>{BDDF3484-EC58-42BA-95CF-834E0AF94CA8}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$32</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1569,7 +1569,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F7899DC2-9650-4A96-9EED-BCF7C6E3CDE3}</c15:txfldGUID>
+                      <c15:txfldGUID>{F9CD9CF8-9457-4639-B612-F9573C84B147}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$33</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1608,7 +1608,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5F018653-CB6D-4B39-B10E-BC51F0F97C7E}</c15:txfldGUID>
+                      <c15:txfldGUID>{48C892C1-D035-402D-AE1D-9B71117F3953}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$34</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1647,7 +1647,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D4F24D42-E451-4462-B68A-A50504A6CFA2}</c15:txfldGUID>
+                      <c15:txfldGUID>{6946E85B-46C3-4FCE-8AE6-2B185C96BCDB}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$35</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1670,7 +1670,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>32.5%</c:v>
+                      <c:v>31.3%</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -1686,12 +1686,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BA162BFA-B8DF-46A3-BD3D-64FED5E260CC}</c15:txfldGUID>
+                      <c15:txfldGUID>{E2DEBCFB-8B1C-484E-8A32-E3651DDE58B7}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$36</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>32.5%</c:v>
+                          <c:v>31.3%</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -1709,7 +1709,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>31.6%</c:v>
+                      <c:v>31.0%</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -1725,12 +1725,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{86CF0A62-D150-46C2-AD11-F47E327CF2D5}</c15:txfldGUID>
+                      <c15:txfldGUID>{A43E5C8C-8EB8-48AA-8C4C-E18B812D4E0A}</c15:txfldGUID>
                       <c15:f>'Fig25'!$K$37</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>31.6%</c:v>
+                          <c:v>31.0%</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -1836,13 +1836,13 @@
                   <c:v>3705.2005227999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3392.5023114000001</c:v>
+                  <c:v>3387.8437749999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3639.5684384000001</c:v>
+                  <c:v>3481.5548054999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3579.0878081999999</c:v>
+                  <c:v>3500.0363753000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,8 +1858,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="446171584"/>
-        <c:axId val="690122256"/>
+        <c:axId val="422810400"/>
+        <c:axId val="422810960"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1978,11 +1978,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="644817120"/>
-        <c:axId val="644817680"/>
+        <c:axId val="422811520"/>
+        <c:axId val="422812080"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="446171584"/>
+        <c:axId val="422810400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +1999,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="690122256"/>
+        <c:crossAx val="422810960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2007,7 +2007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="690122256"/>
+        <c:axId val="422810960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14000"/>
@@ -2035,12 +2035,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446171584"/>
+        <c:crossAx val="422810400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644817120"/>
+        <c:axId val="422811520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2050,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="644817680"/>
+        <c:crossAx val="422812080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644817680"/>
+        <c:axId val="422812080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2072,7 +2072,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="644817120"/>
+        <c:crossAx val="422811520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2201,7 +2201,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2633,31 +2633,31 @@
             <v>2016</v>
           </cell>
           <cell r="B35">
-            <v>3392.5023114000001</v>
+            <v>3387.8437749999998</v>
           </cell>
           <cell r="C35">
-            <v>3791.7229287</v>
+            <v>3791.2734040999999</v>
           </cell>
           <cell r="D35">
-            <v>64.598316478000001</v>
+            <v>65.963804644999996</v>
           </cell>
           <cell r="E35">
-            <v>2200.4286966999998</v>
+            <v>2199.3331119999998</v>
           </cell>
           <cell r="F35">
-            <v>710.09163518000003</v>
+            <v>703.77238824999995</v>
           </cell>
           <cell r="G35">
-            <v>926.06200429</v>
+            <v>926.89138218999994</v>
           </cell>
           <cell r="H35">
-            <v>73.488865218000001</v>
+            <v>73.931841148000004</v>
           </cell>
           <cell r="K35">
-            <v>0.30401776799820479</v>
+            <v>0.30386948039160411</v>
           </cell>
           <cell r="L35">
-            <v>0.33979376750233636</v>
+            <v>0.34005472384167867</v>
           </cell>
         </row>
         <row r="36">
@@ -2665,31 +2665,31 @@
             <v>2017</v>
           </cell>
           <cell r="B36">
-            <v>3639.5684384000001</v>
+            <v>3481.5548054999999</v>
           </cell>
           <cell r="C36">
-            <v>3623.4475726000001</v>
+            <v>3605.4093177999998</v>
           </cell>
           <cell r="D36">
-            <v>70.541876685000005</v>
+            <v>69.099193972999998</v>
           </cell>
           <cell r="E36">
-            <v>2163.5052795000001</v>
+            <v>2161.8027781000001</v>
           </cell>
           <cell r="F36">
-            <v>688.40494192000006</v>
+            <v>718.02100574999997</v>
           </cell>
           <cell r="G36">
-            <v>954.95465396999998</v>
+            <v>1021.3840595</v>
           </cell>
           <cell r="H36">
-            <v>74.702008411000008</v>
+            <v>76.064637013999999</v>
           </cell>
           <cell r="K36">
-            <v>0.32452324068625443</v>
+            <v>0.31271441010438544</v>
           </cell>
           <cell r="L36">
-            <v>0.32308581872246134</v>
+            <v>0.32383906357572395</v>
           </cell>
         </row>
         <row r="37">
@@ -2697,31 +2697,31 @@
             <v>2018</v>
           </cell>
           <cell r="B37">
-            <v>3579.0878081999999</v>
+            <v>3500.0363753000001</v>
           </cell>
           <cell r="C37">
-            <v>3708.0333836</v>
+            <v>3700.8256301000001</v>
           </cell>
           <cell r="D37">
-            <v>72.636247698999995</v>
+            <v>72.131605781000005</v>
           </cell>
           <cell r="E37">
             <v>2122.9725232999999</v>
           </cell>
           <cell r="F37">
-            <v>717.84350384000004</v>
+            <v>722.39351999999997</v>
           </cell>
           <cell r="G37">
-            <v>1043.4115551</v>
+            <v>1108.8402649</v>
           </cell>
           <cell r="H37">
-            <v>75.565310767</v>
+            <v>77.236035014000009</v>
           </cell>
           <cell r="K37">
-            <v>0.31618635643637605</v>
+            <v>0.30961619566818505</v>
           </cell>
           <cell r="L37">
-            <v>0.32757775945557788</v>
+            <v>0.3273781839837771</v>
           </cell>
         </row>
         <row r="41">
@@ -3667,59 +3667,59 @@
         <v>2016</v>
       </c>
       <c r="B35" s="13">
-        <v>3392.5023114000001</v>
+        <v>3387.8437749999998</v>
       </c>
       <c r="C35" s="13">
-        <v>3791.7229287</v>
+        <v>3791.2734040999999</v>
       </c>
       <c r="D35" s="13">
-        <v>64.598316478000001</v>
+        <v>65.963804644999996</v>
       </c>
       <c r="E35" s="13">
-        <v>2200.4286966999998</v>
+        <v>2199.3331119999998</v>
       </c>
       <c r="F35" s="13">
-        <v>710.09163518000003</v>
+        <v>703.77238824999995</v>
       </c>
       <c r="G35" s="13">
-        <v>926.06200429</v>
+        <v>926.89138218999994</v>
       </c>
       <c r="H35" s="13">
-        <v>73.488865218000001</v>
+        <v>73.931841148000004</v>
       </c>
       <c r="I35" s="13">
-        <v>11158.894869</v>
+        <v>11149.009668999999</v>
       </c>
       <c r="J35" s="7">
         <v>2016</v>
       </c>
       <c r="K35" s="14">
         <f t="shared" si="0"/>
-        <v>0.30401776799820479</v>
+        <v>0.30386948039160411</v>
       </c>
       <c r="L35" s="14">
         <f t="shared" si="0"/>
-        <v>0.33979376750233636</v>
+        <v>0.34005472384167867</v>
       </c>
       <c r="M35" s="14">
         <f t="shared" si="0"/>
-        <v>5.7889528700066474E-3</v>
+        <v>5.9165617936823046E-3</v>
       </c>
       <c r="N35" s="14">
         <f t="shared" si="0"/>
-        <v>0.19719055717720821</v>
+        <v>0.19726712751135922</v>
       </c>
       <c r="O35" s="14">
         <f t="shared" si="0"/>
-        <v>6.3634584205347441E-2</v>
+        <v>6.3124206467131377E-2</v>
       </c>
       <c r="P35" s="14">
         <f t="shared" si="0"/>
-        <v>8.2988684377935065E-2</v>
+        <v>8.3136656053607733E-2</v>
       </c>
       <c r="Q35" s="15">
         <f t="shared" si="1"/>
-        <v>6.5856759186929846E-3</v>
+        <v>6.6312473791792182E-3</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
@@ -3727,59 +3727,59 @@
         <v>2017</v>
       </c>
       <c r="B36" s="13">
-        <v>3639.5684384000001</v>
+        <v>3481.5548054999999</v>
       </c>
       <c r="C36" s="13">
-        <v>3623.4475726000001</v>
+        <v>3605.4093177999998</v>
       </c>
       <c r="D36" s="13">
-        <v>70.541876685000005</v>
+        <v>69.099193972999998</v>
       </c>
       <c r="E36" s="13">
-        <v>2163.5052795000001</v>
+        <v>2161.8027781000001</v>
       </c>
       <c r="F36" s="13">
-        <v>688.40494192000006</v>
+        <v>718.02100574999997</v>
       </c>
       <c r="G36" s="13">
-        <v>954.95465396999998</v>
+        <v>1021.3840595</v>
       </c>
       <c r="H36" s="13">
-        <v>74.702008411000008</v>
+        <v>76.064637013999999</v>
       </c>
       <c r="I36" s="13">
-        <v>11215.124164000001</v>
+        <v>11133.336658</v>
       </c>
       <c r="J36" s="7">
         <v>2017</v>
       </c>
       <c r="K36" s="14">
         <f t="shared" si="0"/>
-        <v>0.32452324068625443</v>
+        <v>0.31271441010438544</v>
       </c>
       <c r="L36" s="14">
         <f t="shared" si="0"/>
-        <v>0.32308581872246134</v>
+        <v>0.32383906357572395</v>
       </c>
       <c r="M36" s="14">
         <f t="shared" si="0"/>
-        <v>6.289888159369289E-3</v>
+        <v>6.2065125753066937E-3</v>
       </c>
       <c r="N36" s="14">
         <f t="shared" si="0"/>
-        <v>0.19290961454040306</v>
+        <v>0.19417384423982267</v>
       </c>
       <c r="O36" s="14">
         <f t="shared" si="0"/>
-        <v>6.1381838654069133E-2</v>
+        <v>6.4492885449040735E-2</v>
       </c>
       <c r="P36" s="14">
         <f t="shared" si="0"/>
-        <v>8.5148825818206958E-2</v>
+        <v>9.1741055792655971E-2</v>
       </c>
       <c r="Q36" s="15">
         <f t="shared" si="1"/>
-        <v>6.6608275859120483E-3</v>
+        <v>6.8321509849738346E-3</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
@@ -3787,59 +3787,59 @@
         <v>2018</v>
       </c>
       <c r="B37" s="16">
-        <v>3579.0878081999999</v>
+        <v>3500.0363753000001</v>
       </c>
       <c r="C37" s="16">
-        <v>3708.0333836</v>
+        <v>3700.8256301000001</v>
       </c>
       <c r="D37" s="16">
-        <v>72.636247698999995</v>
+        <v>72.131605781000005</v>
       </c>
       <c r="E37" s="16">
         <v>2122.9725232999999</v>
       </c>
       <c r="F37" s="16">
-        <v>717.84350384000004</v>
+        <v>722.39351999999997</v>
       </c>
       <c r="G37" s="16">
-        <v>1043.4115551</v>
+        <v>1108.8402649</v>
       </c>
       <c r="H37" s="16">
-        <v>75.565310767</v>
+        <v>77.236035014000009</v>
       </c>
       <c r="I37" s="16">
-        <v>11319.551699</v>
+        <v>11304.435699</v>
       </c>
       <c r="J37" s="9">
         <v>2018</v>
       </c>
       <c r="K37" s="17">
         <f t="shared" si="0"/>
-        <v>0.31618635643637605</v>
+        <v>0.30961619566818505</v>
       </c>
       <c r="L37" s="17">
         <f t="shared" si="0"/>
-        <v>0.32757775945557788</v>
+        <v>0.3273781839837771</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="0"/>
-        <v>6.41688378042541E-3</v>
+        <v>6.3808232185690464E-3</v>
       </c>
       <c r="N37" s="17">
         <f t="shared" si="0"/>
-        <v>0.18754916976858271</v>
+        <v>0.18779995568357294</v>
       </c>
       <c r="O37" s="17">
         <f t="shared" si="0"/>
-        <v>6.3416248534243311E-2</v>
+        <v>6.3903545407746759E-2</v>
       </c>
       <c r="P37" s="17">
         <f t="shared" si="0"/>
-        <v>9.2177816122539363E-2</v>
+        <v>9.8088953259125436E-2</v>
       </c>
       <c r="Q37" s="18">
         <f t="shared" si="1"/>
-        <v>6.6756451824567971E-3</v>
+        <v>6.8323653714826632E-3</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
